--- a/public/sample_uploads/capital_remittance_payments.xlsx
+++ b/public/sample_uploads/capital_remittance_payments.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17458C6-CF13-4BA4-B09F-B37E6B61CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA21FE0-0CBB-433D-AF5E-BB785886F55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Investor *</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Amount *</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Currency *</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -132,13 +141,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -470,14 +476,14 @@
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="13.1875" customWidth="1"/>
     <col min="3" max="3" width="18.6875" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="20.0625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="20.0625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,154 +497,174 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
         <v>10000</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="2">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
         <v>30000</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="3">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="2">
         <v>44562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="3">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="2">
         <v>44562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
         <v>12000</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="3">
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="2">
         <v>44593</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
         <v>10000</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="2">
         <v>44593</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/sample_uploads/capital_remittance_payments.xlsx
+++ b/public/sample_uploads/capital_remittance_payments.xlsx
@@ -232,19 +232,19 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +442,7 @@
         <v>44593</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/sample_uploads/capital_remittance_payments.xlsx
+++ b/public/sample_uploads/capital_remittance_payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1040559-E9B7-4F10-99D2-F1C13542E664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25602399-7BC8-4B19-9512-C02F67E9484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
+    <author>thimm</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AF1C8D7D-EBB9-4B28-B97B-E1015AE65DDE}">
@@ -159,7 +160,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{48F10BE5-231C-4B9C-B317-B2D3ABF111DD}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{EB875F93-747D-4B75-8A91-D3674F584D42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>thimm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Amount in fund currency, leave blank if you want the platform to convert the amount based on exchange rates setup on the platform</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{48F10BE5-231C-4B9C-B317-B2D3ABF111DD}">
       <text>
         <r>
           <rPr>
@@ -183,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B5197DDF-C842-43C4-AC5A-880D37734314}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B5197DDF-C842-43C4-AC5A-880D37734314}">
       <text>
         <r>
           <rPr>
@@ -208,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{36E19C36-AEAF-44D1-8401-0D95F72C47A8}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{36E19C36-AEAF-44D1-8401-0D95F72C47A8}">
       <text>
         <r>
           <rPr>
@@ -232,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{92470821-5211-4EB4-89F7-4F2EC79F65DA}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{92470821-5211-4EB4-89F7-4F2EC79F65DA}">
       <text>
         <r>
           <rPr>
@@ -256,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E28A602A-53B9-4475-A0AD-B8764627A8B2}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E28A602A-53B9-4475-A0AD-B8764627A8B2}">
       <text>
         <r>
           <rPr>
@@ -280,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8CC206EF-9969-4A6D-931F-975EC0026408}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8CC206EF-9969-4A6D-931F-975EC0026408}">
       <text>
         <r>
           <rPr>
@@ -304,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{93C3FB12-094F-4522-9E30-A37FB17C39A6}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{93C3FB12-094F-4522-9E30-A37FB17C39A6}">
       <text>
         <r>
           <rPr>
@@ -334,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Investor *</t>
   </si>
@@ -345,9 +370,6 @@
     <t>Capital Call *</t>
   </si>
   <si>
-    <t>Amount *</t>
-  </si>
-  <si>
     <t>Currency *</t>
   </si>
   <si>
@@ -403,13 +425,19 @@
   </si>
   <si>
     <t>Investor 4</t>
+  </si>
+  <si>
+    <t>Amount (Folio Currency)*</t>
+  </si>
+  <si>
+    <t>Amount (Fund Currency)*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -451,6 +479,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -833,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -846,17 +887,18 @@
     <col min="3" max="3" width="11.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.4375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.4375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.4375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="2"/>
+    <col min="6" max="6" width="9.4375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.4375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,199 +909,202 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>10000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>44562</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>30000</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>44562</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>44562</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>10000</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>44562</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>44562</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>12000</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>44593</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="4">
-        <v>44593</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>10000</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>44593</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>16</v>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F187 L2:L7 F2:F7 L8:L187" xr:uid="{F8557951-1A91-4529-BF37-BF1B184BD42D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G187 M2:M7 G2:G7 M8:M187" xr:uid="{F8557951-1A91-4529-BF37-BF1B184BD42D}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/sample_uploads/capital_remittance_payments.xlsx
+++ b/public/sample_uploads/capital_remittance_payments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/Test/bulk files with notes/feb 25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25602399-7BC8-4B19-9512-C02F67E9484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{25602399-7BC8-4B19-9512-C02F67E9484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45A0013-D48E-4E9A-8BB1-0F96339FB46B}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
@@ -170,17 +170,17 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>thimm:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Amount in fund currency, leave blank if you want the platform to convert the amount based on exchange rates setup on the platform</t>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leave blank if you want the system to convert based on FX rates entered by you in the system</t>
         </r>
       </text>
     </comment>
@@ -437,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -479,12 +479,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -877,7 +871,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -887,7 +881,7 @@
     <col min="3" max="3" width="11.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.4375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.4375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.4375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.4375" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6875" style="2" bestFit="1" customWidth="1"/>
